--- a/biology/Neurosciences/Signal_optique_évoqué/Signal_optique_évoqué.xlsx
+++ b/biology/Neurosciences/Signal_optique_évoqué/Signal_optique_évoqué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Signal_optique_%C3%A9voqu%C3%A9</t>
+          <t>Signal_optique_évoqué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La mesure du signal optique évoqué ou encore signal optique lié à l'événement (en:event-related optical signal, EROS) est une technique utilisée dans le domaine des neuroscience. Elle utilise le fait que l'activité des neurones modifie leurs propriétés optiques. En mesurant la quantité de lumière diffusée, on peut donc déduire l'activité des neurones qu'elle traverse.
